--- a/medicine/Enfance/Pierre_Maël/Pierre_Maël.xlsx
+++ b/medicine/Enfance/Pierre_Maël/Pierre_Maël.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre_Ma%C3%ABl</t>
+          <t>Pierre_Maël</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Maël est le pseudonyme collectif de deux auteurs français de romans d’aventure et sentimentaux pour la jeunesse : Charles Causse (1862-1904) et Charles Vincent (1851-1920).
 Grands succès de librairie du début du XXe siècle, les romans de l'auteur tombent en désuétude après la Seconde Guerre mondiale, laquelle marque un changement dans la littérature pour la jeunesse.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierre_Ma%C3%ABl</t>
+          <t>Pierre_Maël</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,16 @@
           <t>Biographie des auteurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Vincent[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Vincent
 Il est né le  9 juin 1851 à Nudjuffgur, dans les Indes françaises, et est mort le 28 juin 1920 à Paris, 16e arrondissement. Après la mort de Charles Causse, il écrit sous son patronyme des rééditions des romans de Pierre Maël.
 Charles Causse
 Né en 1862 et mort en 1904, il n’a jamais écrit sous son patronyme. Il est le père d'un autre auteur de romans d'aventures : Jean d'Agraives.
-Tous deux d’origine bretonne, catholiques fervents et légitimistes, leur œuvre – qui comprend 94 titres – est divisée en deux catégories : les romans pour garçons et les romans pour filles. Le nom de Pierre Maël est associé à une forme particulière de littérature, celle des livres d’étrennes et de prix scolaires[2].
-Si les premières années de cette collaboration est sereine, Charles Vincent, auteur en parallèle d'ouvrages sérieux au lectorat faible malgré des qualités indéniables, vit difficilement cette situation qui se termine devant les tribunaux[3].
+Tous deux d’origine bretonne, catholiques fervents et légitimistes, leur œuvre – qui comprend 94 titres – est divisée en deux catégories : les romans pour garçons et les romans pour filles. Le nom de Pierre Maël est associé à une forme particulière de littérature, celle des livres d’étrennes et de prix scolaires.
+Si les premières années de cette collaboration est sereine, Charles Vincent, auteur en parallèle d'ouvrages sérieux au lectorat faible malgré des qualités indéniables, vit difficilement cette situation qui se termine devant les tribunaux.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pierre_Ma%C3%ABl</t>
+          <t>Pierre_Maël</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Note : liste exhaustive.
 1887 : La Double Vue. Éditions L. Frinzine.
@@ -564,13 +580,13 @@
 1891 : Amours simples. Éditions Flammarion.
 1891 : Un manuscrit, collection La Nouvelle collection, Éditions G. Charpentier et E. Fasquelle.
 1891 : Mariage mondain. Flammarion. Réédition : Jules Tallandier, 1925.
-1891 : Pilleur d’épaves, mœurs maritimes, Collection : Auteurs célèbres 195,  Flammarion. Rééditions : Ollendorff, 1903 ; Albin Michel, 1948 ; Bouhet : la Découvrance, Collection : L'Amateur averti, 2005.  (ISBN 2-84265-346-7) (Ce roman est paru en feuilleton sous le titre Mer sauvage (Mœurs maritimes) dans le journal Le Gaulois en 1891)[4].
+1891 : Pilleur d’épaves, mœurs maritimes, Collection : Auteurs célèbres 195,  Flammarion. Rééditions : Ollendorff, 1903 ; Albin Michel, 1948 ; Bouhet : la Découvrance, Collection : L'Amateur averti, 2005.  (ISBN 2-84265-346-7) (Ce roman est paru en feuilleton sous le titre Mer sauvage (Mœurs maritimes) dans le journal Le Gaulois en 1891).
 1891 : Quand on aime. Éditions Firmin Didot. Publication sous forme de roman-feuilleton dans L'Express du Midi du 29 septembre 1891 au 5 décembre 1891.
 1892 : Charité. Éditions P. Ollendorff.
 1892 : Mer sauvage. Éditions P. Ollendorff. Réédition : Éd. Astoure, Collection : Les grands romans de Bretagne, 2009.  (ISBN 978-2-84583-224-4).
 1893 : Honneur, Patrie. Éditions Ollendorff.
 1893 : Solitude. Éditions Ollendorff.
-1893 : Une Française au pôle nord. Éditions Hachette. Réédition : Nantes : les Étudions Maison, collection : Femmes de caractère, 2008.  (ISBN 978-2-917575-00-0)[5].
+1893 : Une Française au pôle nord. Éditions Hachette. Réédition : Nantes : les Étudions Maison, collection : Femmes de caractère, 2008.  (ISBN 978-2-917575-00-0).
 1894 : Ce qu’elle voulait. Éditions Ollendorff.
 1894 : Dernière Pensée. Éditions Ollendorff.
 1894 : Femme d’artiste. Éditions Ollendorff.
@@ -617,7 +633,7 @@
 1903 : La Pupille du bonhomme, Hachette.
 1903 : Martyre d’un cœur, Flammarion.
 1903 : Terre d’héroïsme (suite de Martyre d’un cœur). Flammarion.
-1904 : Blanche contre Jaunes : roman d'aventures sur la guerre russo-japonaise. Collection Gallia, Librairie Générale. Réédition : collection : Bibliothèque du Rocambole. Romans scientifiques 3, Amiens : AARP-Centre Rocambole : Encrage éditions, 2011.  (ISBN 978-2-36058-122-1)[6].
+1904 : Blanche contre Jaunes : roman d'aventures sur la guerre russo-japonaise. Collection Gallia, Librairie Générale. Réédition : collection : Bibliothèque du Rocambole. Romans scientifiques 3, Amiens : AARP-Centre Rocambole : Encrage éditions, 2011.  (ISBN 978-2-36058-122-1).
 1904: Le Crime et l’Amour, Flammarion. Réédition : Tallandier, 1930.
 1904 : Partage de cœur (suite du Crime de l’amour). Flammarion. Réédition : collection : Le Livre national. Romans populaires no 736, éditions Jules Tallandier, 1930.
 1904 : La Fée des îles. Hachette.
@@ -655,7 +671,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pierre_Ma%C3%ABl</t>
+          <t>Pierre_Maël</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -673,7 +689,9 @@
           <t>Adaptations cinématographiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Loin des yeux, près du cœur, film muet français réalisé par Maurice Le Forestier, sorti en 1915</t>
         </is>
